--- a/exercises/carbonsink/carbonsink19902016.xlsx
+++ b/exercises/carbonsink/carbonsink19902016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{180222C6-A041-438D-9F1B-F88D78DA4FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A361DA-09DC-4A09-A602-936F8AFF107F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1C8EF252-5F8E-4917-B635-55285A6D264D}"/>
   </bookViews>
@@ -409,699 +409,699 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FD6EA0-D377-4CFD-AC45-FC6F4B8DDF1B}">
-  <dimension ref="A2:AB9"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1990</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1991</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1992</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1993</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1994</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1995</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1996</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1997</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1998</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1999</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2001</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2002</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2003</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2004</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2006</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2007</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2016</v>
+      </c>
+    </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1990</v>
+        <v>1468</v>
       </c>
       <c r="C2" s="1">
-        <v>1991</v>
+        <v>1448</v>
       </c>
       <c r="D2" s="1">
-        <v>1992</v>
+        <v>1439</v>
       </c>
       <c r="E2" s="1">
-        <v>1993</v>
+        <v>1438</v>
       </c>
       <c r="F2" s="1">
-        <v>1994</v>
+        <v>1440</v>
       </c>
       <c r="G2" s="1">
-        <v>1995</v>
+        <v>1447</v>
       </c>
       <c r="H2" s="1">
-        <v>1996</v>
+        <v>1446</v>
       </c>
       <c r="I2" s="1">
-        <v>1997</v>
+        <v>1452</v>
       </c>
       <c r="J2" s="1">
-        <v>1998</v>
+        <v>1444</v>
       </c>
       <c r="K2" s="1">
-        <v>1999</v>
+        <v>1451</v>
       </c>
       <c r="L2" s="1">
-        <v>2000</v>
+        <v>1447</v>
       </c>
       <c r="M2" s="1">
-        <v>2001</v>
+        <v>1444</v>
       </c>
       <c r="N2" s="1">
-        <v>2002</v>
+        <v>1444</v>
       </c>
       <c r="O2" s="1">
-        <v>2003</v>
+        <v>1443</v>
       </c>
       <c r="P2" s="1">
-        <v>2004</v>
+        <v>1439</v>
       </c>
       <c r="Q2" s="1">
-        <v>2005</v>
+        <v>1447</v>
       </c>
       <c r="R2" s="1">
-        <v>2006</v>
+        <v>1468</v>
       </c>
       <c r="S2" s="1">
-        <v>2007</v>
+        <v>1456</v>
       </c>
       <c r="T2" s="1">
-        <v>2008</v>
+        <v>1433</v>
       </c>
       <c r="U2" s="1">
-        <v>2009</v>
+        <v>1390</v>
       </c>
       <c r="V2" s="1">
-        <v>2010</v>
+        <v>1406</v>
       </c>
       <c r="W2" s="1">
-        <v>2011</v>
+        <v>1345</v>
       </c>
       <c r="X2" s="1">
-        <v>2012</v>
+        <v>1280</v>
       </c>
       <c r="Y2" s="1">
-        <v>2013</v>
+        <v>1283</v>
       </c>
       <c r="Z2" s="1">
-        <v>2014</v>
+        <v>1328</v>
       </c>
       <c r="AA2" s="1">
-        <v>2015</v>
+        <v>1306</v>
       </c>
       <c r="AB2" s="1">
-        <v>2016</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1468</v>
+        <v>-36055</v>
       </c>
       <c r="C3" s="1">
-        <v>1448</v>
+        <v>-36798</v>
       </c>
       <c r="D3" s="1">
-        <v>1439</v>
+        <v>-33273</v>
       </c>
       <c r="E3" s="1">
-        <v>1438</v>
+        <v>-30276</v>
       </c>
       <c r="F3" s="1">
-        <v>1440</v>
+        <v>-30718</v>
       </c>
       <c r="G3" s="1">
-        <v>1447</v>
+        <v>-35825</v>
       </c>
       <c r="H3" s="1">
-        <v>1446</v>
+        <v>-37724</v>
       </c>
       <c r="I3" s="1">
-        <v>1452</v>
+        <v>-36625</v>
       </c>
       <c r="J3" s="1">
-        <v>1444</v>
+        <v>-37035</v>
       </c>
       <c r="K3" s="1">
-        <v>1451</v>
+        <v>-36183</v>
       </c>
       <c r="L3" s="1">
-        <v>1447</v>
+        <v>-36774</v>
       </c>
       <c r="M3" s="1">
-        <v>1444</v>
+        <v>-34358</v>
       </c>
       <c r="N3" s="1">
-        <v>1444</v>
+        <v>-34981</v>
       </c>
       <c r="O3" s="1">
-        <v>1443</v>
+        <v>-32801</v>
       </c>
       <c r="P3" s="1">
-        <v>1439</v>
+        <v>-26450</v>
       </c>
       <c r="Q3" s="1">
-        <v>1447</v>
+        <v>-23312</v>
       </c>
       <c r="R3" s="1">
-        <v>1468</v>
+        <v>-29003</v>
       </c>
       <c r="S3" s="1">
-        <v>1456</v>
+        <v>-28820</v>
       </c>
       <c r="T3" s="1">
-        <v>1433</v>
+        <v>-32641</v>
       </c>
       <c r="U3" s="1">
-        <v>1390</v>
+        <v>-35387</v>
       </c>
       <c r="V3" s="1">
-        <v>1406</v>
+        <v>-37444</v>
       </c>
       <c r="W3" s="1">
-        <v>1345</v>
+        <v>-34256</v>
       </c>
       <c r="X3" s="1">
-        <v>1280</v>
+        <v>-34834</v>
       </c>
       <c r="Y3" s="1">
-        <v>1283</v>
+        <v>-35077</v>
       </c>
       <c r="Z3" s="1">
-        <v>1328</v>
+        <v>-35329</v>
       </c>
       <c r="AA3" s="1">
-        <v>1306</v>
+        <v>-35600</v>
       </c>
       <c r="AB3" s="1">
-        <v>1303</v>
+        <v>-36042</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>-36055</v>
+        <v>5876</v>
       </c>
       <c r="C4" s="1">
-        <v>-36798</v>
+        <v>6523</v>
       </c>
       <c r="D4" s="1">
-        <v>-33273</v>
+        <v>3535</v>
       </c>
       <c r="E4" s="1">
-        <v>-30276</v>
+        <v>4408</v>
       </c>
       <c r="F4" s="1">
-        <v>-30718</v>
+        <v>4690</v>
       </c>
       <c r="G4" s="1">
-        <v>-35825</v>
+        <v>6932</v>
       </c>
       <c r="H4" s="1">
-        <v>-37724</v>
+        <v>6496</v>
       </c>
       <c r="I4" s="1">
-        <v>-36625</v>
+        <v>5666</v>
       </c>
       <c r="J4" s="1">
-        <v>-37035</v>
+        <v>4478</v>
       </c>
       <c r="K4" s="1">
-        <v>-36183</v>
+        <v>3820</v>
       </c>
       <c r="L4" s="1">
-        <v>-36774</v>
+        <v>3189</v>
       </c>
       <c r="M4" s="1">
-        <v>-34358</v>
+        <v>-718</v>
       </c>
       <c r="N4" s="1">
-        <v>-34981</v>
+        <v>1078</v>
       </c>
       <c r="O4" s="1">
-        <v>-32801</v>
+        <v>2077</v>
       </c>
       <c r="P4" s="1">
-        <v>-26450</v>
+        <v>3072</v>
       </c>
       <c r="Q4" s="1">
-        <v>-23312</v>
+        <v>3722</v>
       </c>
       <c r="R4" s="1">
-        <v>-29003</v>
+        <v>3548</v>
       </c>
       <c r="S4" s="1">
-        <v>-28820</v>
+        <v>4398</v>
       </c>
       <c r="T4" s="1">
-        <v>-32641</v>
+        <v>6203</v>
       </c>
       <c r="U4" s="1">
-        <v>-35387</v>
+        <v>5929</v>
       </c>
       <c r="V4" s="1">
-        <v>-37444</v>
+        <v>5921</v>
       </c>
       <c r="W4" s="1">
-        <v>-34256</v>
+        <v>3302</v>
       </c>
       <c r="X4" s="1">
-        <v>-34834</v>
+        <v>2915</v>
       </c>
       <c r="Y4" s="1">
-        <v>-35077</v>
+        <v>5681</v>
       </c>
       <c r="Z4" s="1">
-        <v>-35329</v>
+        <v>5874</v>
       </c>
       <c r="AA4" s="1">
-        <v>-35600</v>
+        <v>6446</v>
       </c>
       <c r="AB4" s="1">
-        <v>-36042</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>5876</v>
+        <v>-13890</v>
       </c>
       <c r="C5" s="1">
-        <v>6523</v>
+        <v>-13877</v>
       </c>
       <c r="D5" s="1">
-        <v>3535</v>
+        <v>-13872</v>
       </c>
       <c r="E5" s="1">
-        <v>4408</v>
+        <v>-13853</v>
       </c>
       <c r="F5" s="1">
-        <v>4690</v>
+        <v>-13942</v>
       </c>
       <c r="G5" s="1">
-        <v>6932</v>
+        <v>-13890</v>
       </c>
       <c r="H5" s="1">
-        <v>6496</v>
+        <v>-13831</v>
       </c>
       <c r="I5" s="1">
-        <v>5666</v>
+        <v>-13795</v>
       </c>
       <c r="J5" s="1">
-        <v>4478</v>
+        <v>-13900</v>
       </c>
       <c r="K5" s="1">
-        <v>3820</v>
+        <v>-13964</v>
       </c>
       <c r="L5" s="1">
-        <v>3189</v>
+        <v>-14050</v>
       </c>
       <c r="M5" s="1">
-        <v>-718</v>
+        <v>-14008</v>
       </c>
       <c r="N5" s="1">
-        <v>1078</v>
+        <v>-13830</v>
       </c>
       <c r="O5" s="1">
-        <v>2077</v>
+        <v>-14811</v>
       </c>
       <c r="P5" s="1">
-        <v>3072</v>
+        <v>-15833</v>
       </c>
       <c r="Q5" s="1">
-        <v>3722</v>
+        <v>-15887</v>
       </c>
       <c r="R5" s="1">
-        <v>3548</v>
+        <v>-15811</v>
       </c>
       <c r="S5" s="1">
-        <v>4398</v>
+        <v>-15774</v>
       </c>
       <c r="T5" s="1">
-        <v>6203</v>
+        <v>-15887</v>
       </c>
       <c r="U5" s="1">
-        <v>5929</v>
+        <v>-15856</v>
       </c>
       <c r="V5" s="1">
-        <v>5921</v>
+        <v>-16254</v>
       </c>
       <c r="W5" s="1">
-        <v>3302</v>
+        <v>-16200</v>
       </c>
       <c r="X5" s="1">
-        <v>2915</v>
+        <v>-16213</v>
       </c>
       <c r="Y5" s="1">
-        <v>5681</v>
+        <v>-16892</v>
       </c>
       <c r="Z5" s="1">
-        <v>5874</v>
+        <v>-17550</v>
       </c>
       <c r="AA5" s="1">
-        <v>6446</v>
+        <v>-17547</v>
       </c>
       <c r="AB5" s="1">
-        <v>6399</v>
+        <v>-17554</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>-13890</v>
+        <v>5587</v>
       </c>
       <c r="C6" s="1">
-        <v>-13877</v>
+        <v>5585</v>
       </c>
       <c r="D6" s="1">
-        <v>-13872</v>
+        <v>5584</v>
       </c>
       <c r="E6" s="1">
-        <v>-13853</v>
+        <v>5581</v>
       </c>
       <c r="F6" s="1">
-        <v>-13942</v>
+        <v>5584</v>
       </c>
       <c r="G6" s="1">
-        <v>-13890</v>
+        <v>5631</v>
       </c>
       <c r="H6" s="1">
-        <v>-13831</v>
+        <v>5622</v>
       </c>
       <c r="I6" s="1">
-        <v>-13795</v>
+        <v>5623</v>
       </c>
       <c r="J6" s="1">
-        <v>-13900</v>
+        <v>5624</v>
       </c>
       <c r="K6" s="1">
-        <v>-13964</v>
+        <v>5617</v>
       </c>
       <c r="L6" s="1">
-        <v>-14050</v>
+        <v>5603</v>
       </c>
       <c r="M6" s="1">
-        <v>-14008</v>
+        <v>5598</v>
       </c>
       <c r="N6" s="1">
-        <v>-13830</v>
+        <v>5603</v>
       </c>
       <c r="O6" s="1">
-        <v>-14811</v>
+        <v>5657</v>
       </c>
       <c r="P6" s="1">
-        <v>-15833</v>
+        <v>5594</v>
       </c>
       <c r="Q6" s="1">
-        <v>-15887</v>
+        <v>5588</v>
       </c>
       <c r="R6" s="1">
-        <v>-15811</v>
+        <v>5585</v>
       </c>
       <c r="S6" s="1">
-        <v>-15774</v>
+        <v>5454</v>
       </c>
       <c r="T6" s="1">
-        <v>-15887</v>
+        <v>5238</v>
       </c>
       <c r="U6" s="1">
-        <v>-15856</v>
+        <v>5116</v>
       </c>
       <c r="V6" s="1">
-        <v>-16254</v>
+        <v>5118</v>
       </c>
       <c r="W6" s="1">
-        <v>-16200</v>
+        <v>4880</v>
       </c>
       <c r="X6" s="1">
-        <v>-16213</v>
+        <v>4648</v>
       </c>
       <c r="Y6" s="1">
-        <v>-16892</v>
+        <v>4602</v>
       </c>
       <c r="Z6" s="1">
-        <v>-17550</v>
+        <v>4680</v>
       </c>
       <c r="AA6" s="1">
-        <v>-17547</v>
+        <v>4646</v>
       </c>
       <c r="AB6" s="1">
-        <v>-17554</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5587</v>
+        <v>-5016</v>
       </c>
       <c r="C7" s="1">
-        <v>5585</v>
+        <v>-4106</v>
       </c>
       <c r="D7" s="1">
-        <v>5584</v>
+        <v>-3606</v>
       </c>
       <c r="E7" s="1">
-        <v>5581</v>
+        <v>-5198</v>
       </c>
       <c r="F7" s="1">
-        <v>5584</v>
+        <v>-5588</v>
       </c>
       <c r="G7" s="1">
-        <v>5631</v>
+        <v>-6403</v>
       </c>
       <c r="H7" s="1">
-        <v>5622</v>
+        <v>-6043</v>
       </c>
       <c r="I7" s="1">
-        <v>5623</v>
+        <v>-7718</v>
       </c>
       <c r="J7" s="1">
-        <v>5624</v>
+        <v>-6728</v>
       </c>
       <c r="K7" s="1">
-        <v>5617</v>
+        <v>-6355</v>
       </c>
       <c r="L7" s="1">
-        <v>5603</v>
+        <v>-7777</v>
       </c>
       <c r="M7" s="1">
-        <v>5598</v>
+        <v>-6697</v>
       </c>
       <c r="N7" s="1">
-        <v>5603</v>
+        <v>-7403</v>
       </c>
       <c r="O7" s="1">
-        <v>5657</v>
+        <v>-8029</v>
       </c>
       <c r="P7" s="1">
-        <v>5594</v>
+        <v>-8355</v>
       </c>
       <c r="Q7" s="1">
-        <v>5588</v>
+        <v>-10797</v>
       </c>
       <c r="R7" s="1">
-        <v>5585</v>
+        <v>-11912</v>
       </c>
       <c r="S7" s="1">
-        <v>5454</v>
+        <v>-11506</v>
       </c>
       <c r="T7" s="1">
-        <v>5238</v>
+        <v>-9250</v>
       </c>
       <c r="U7" s="1">
-        <v>5116</v>
+        <v>-7299</v>
       </c>
       <c r="V7" s="1">
-        <v>5118</v>
+        <v>-8194</v>
       </c>
       <c r="W7" s="1">
-        <v>4880</v>
+        <v>-6340</v>
       </c>
       <c r="X7" s="1">
-        <v>4648</v>
+        <v>-5828</v>
       </c>
       <c r="Y7" s="1">
-        <v>4602</v>
+        <v>-5546</v>
       </c>
       <c r="Z7" s="1">
-        <v>4680</v>
+        <v>-6454</v>
       </c>
       <c r="AA7" s="1">
-        <v>4646</v>
+        <v>-6658</v>
       </c>
       <c r="AB7" s="1">
-        <v>4617</v>
+        <v>-8226</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>-5016</v>
+        <v>-42028</v>
       </c>
       <c r="C8" s="1">
-        <v>-4106</v>
+        <v>-41224</v>
       </c>
       <c r="D8" s="1">
-        <v>-3606</v>
+        <v>-40193</v>
       </c>
       <c r="E8" s="1">
-        <v>-5198</v>
+        <v>-37901</v>
       </c>
       <c r="F8" s="1">
-        <v>-5588</v>
+        <v>-38534</v>
       </c>
       <c r="G8" s="1">
-        <v>-6403</v>
+        <v>-42108</v>
       </c>
       <c r="H8" s="1">
-        <v>-6043</v>
+        <v>-44034</v>
       </c>
       <c r="I8" s="1">
-        <v>-7718</v>
+        <v>-45396</v>
       </c>
       <c r="J8" s="1">
-        <v>-6728</v>
+        <v>-46118</v>
       </c>
       <c r="K8" s="1">
-        <v>-6355</v>
+        <v>-45613</v>
       </c>
       <c r="L8" s="1">
-        <v>-7777</v>
+        <v>-48362</v>
       </c>
       <c r="M8" s="1">
-        <v>-6697</v>
+        <v>-48739</v>
       </c>
       <c r="N8" s="1">
-        <v>-7403</v>
+        <v>-48090</v>
       </c>
       <c r="O8" s="1">
-        <v>-8029</v>
+        <v>-46464</v>
       </c>
       <c r="P8" s="1">
-        <v>-8355</v>
+        <v>-40534</v>
       </c>
       <c r="Q8" s="1">
-        <v>-10797</v>
+        <v>-39238</v>
       </c>
       <c r="R8" s="1">
-        <v>-11912</v>
+        <v>-46126</v>
       </c>
       <c r="S8" s="1">
-        <v>-11506</v>
+        <v>-44793</v>
       </c>
       <c r="T8" s="1">
-        <v>-9250</v>
+        <v>-44905</v>
       </c>
       <c r="U8" s="1">
-        <v>-7299</v>
+        <v>-46107</v>
       </c>
       <c r="V8" s="1">
-        <v>-8194</v>
+        <v>-49447</v>
       </c>
       <c r="W8" s="1">
-        <v>-6340</v>
+        <v>-47269</v>
       </c>
       <c r="X8" s="1">
-        <v>-5828</v>
+        <v>-48032</v>
       </c>
       <c r="Y8" s="1">
-        <v>-5546</v>
+        <v>-45948</v>
       </c>
       <c r="Z8" s="1">
-        <v>-6454</v>
+        <v>-47452</v>
       </c>
       <c r="AA8" s="1">
-        <v>-6658</v>
+        <v>-47408</v>
       </c>
       <c r="AB8" s="1">
-        <v>-8226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-42028</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-41224</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-40193</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-37901</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-38534</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-42108</v>
-      </c>
-      <c r="H9" s="1">
-        <v>-44034</v>
-      </c>
-      <c r="I9" s="1">
-        <v>-45396</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-46118</v>
-      </c>
-      <c r="K9" s="1">
-        <v>-45613</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-48362</v>
-      </c>
-      <c r="M9" s="1">
-        <v>-48739</v>
-      </c>
-      <c r="N9" s="1">
-        <v>-48090</v>
-      </c>
-      <c r="O9" s="1">
-        <v>-46464</v>
-      </c>
-      <c r="P9" s="1">
-        <v>-40534</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>-39238</v>
-      </c>
-      <c r="R9" s="1">
-        <v>-46126</v>
-      </c>
-      <c r="S9" s="1">
-        <v>-44793</v>
-      </c>
-      <c r="T9" s="1">
-        <v>-44905</v>
-      </c>
-      <c r="U9" s="1">
-        <v>-46107</v>
-      </c>
-      <c r="V9" s="1">
-        <v>-49447</v>
-      </c>
-      <c r="W9" s="1">
-        <v>-47269</v>
-      </c>
-      <c r="X9" s="1">
-        <v>-48032</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>-45948</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>-47452</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>-47408</v>
-      </c>
-      <c r="AB9" s="1">
         <v>-49503</v>
       </c>
     </row>

--- a/exercises/carbonsink/carbonsink19902016.xlsx
+++ b/exercises/carbonsink/carbonsink19902016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A361DA-09DC-4A09-A602-936F8AFF107F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198747CC-30B3-4B4D-8652-2EBF130BD564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1C8EF252-5F8E-4917-B635-55285A6D264D}"/>
   </bookViews>
@@ -53,10 +53,10 @@
     <t>Avverkade träprodukter</t>
   </si>
   <si>
-    <t>Sammantagna upptagna och utsläpp</t>
+    <t>Årtal</t>
   </si>
   <si>
-    <t>Årtal</t>
+    <t>Sammantagna och upptagna utsläpp</t>
   </si>
 </sst>
 </file>
@@ -412,14 +412,14 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AB8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1">
         <v>1990</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>-42028</v>
